--- a/Design/DataTable/MonsterLaneBuff.xlsx
+++ b/Design/DataTable/MonsterLaneBuff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65DDF49-7186-48B1-8BFC-CB9A45B96337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7FC5C3-C040-4C08-96D4-8ADDB0BC7295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{02326DCA-5271-488C-921C-02C5416C2128}"/>
+    <workbookView xWindow="-5400" yWindow="1764" windowWidth="12240" windowHeight="7284" xr2:uid="{02326DCA-5271-488C-921C-02C5416C2128}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterLaneBuff" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,15 +103,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NULL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,22 +489,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B881673F-BBF5-4E06-A02C-DACF7E12984D}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
     <col min="2" max="5" width="8.796875" style="2"/>
-    <col min="6" max="7" width="8.796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.3984375" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="1"/>
+    <col min="6" max="8" width="8.796875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -520,16 +524,19 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -549,16 +556,19 @@
         <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>101110</v>
       </c>
@@ -577,18 +587,21 @@
       <c r="F3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>10</v>
       </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>102110</v>
       </c>
@@ -607,18 +620,21 @@
       <c r="F4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>-7</v>
       </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>103110</v>
       </c>
@@ -637,18 +653,21 @@
       <c r="F5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>104110</v>
       </c>
@@ -667,18 +686,21 @@
       <c r="F6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-5</v>
       </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>105110</v>
       </c>
@@ -697,18 +719,21 @@
       <c r="F7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="3">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>10</v>
       </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>106110</v>
       </c>
@@ -727,18 +752,21 @@
       <c r="F8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="3">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-10</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>201111</v>
       </c>
@@ -757,18 +785,21 @@
       <c r="F9" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>13</v>
       </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>201121</v>
       </c>
@@ -782,23 +813,26 @@
         <v>1</v>
       </c>
       <c r="E10" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>13</v>
       </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>201131</v>
       </c>
@@ -817,18 +851,21 @@
       <c r="F11" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>13</v>
       </c>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>201141</v>
       </c>
@@ -847,18 +884,21 @@
       <c r="F12" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>13</v>
       </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>202111</v>
       </c>
@@ -877,18 +917,21 @@
       <c r="F13" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-10</v>
       </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>202121</v>
       </c>
@@ -907,18 +950,21 @@
       <c r="F14" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-10</v>
       </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>202131</v>
       </c>
@@ -937,18 +983,21 @@
       <c r="F15" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-10</v>
       </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>202141</v>
       </c>
@@ -967,18 +1016,21 @@
       <c r="F16" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-10</v>
       </c>
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>203111</v>
       </c>
@@ -997,18 +1049,21 @@
       <c r="F17" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="G17" s="3">
+        <v>15</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>7</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>203121</v>
       </c>
@@ -1027,18 +1082,21 @@
       <c r="F18" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="3">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>7</v>
       </c>
-      <c r="J18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>203131</v>
       </c>
@@ -1057,18 +1115,21 @@
       <c r="F19" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="G19" s="3">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>7</v>
       </c>
-      <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>203141</v>
       </c>
@@ -1087,18 +1148,21 @@
       <c r="F20" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="3">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>7</v>
       </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>204111</v>
       </c>
@@ -1117,18 +1181,21 @@
       <c r="F21" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="3">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-7</v>
       </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>204121</v>
       </c>
@@ -1147,18 +1214,21 @@
       <c r="F22" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="G22" s="3">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>-7</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>204131</v>
       </c>
@@ -1177,18 +1247,21 @@
       <c r="F23" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="G23" s="3">
+        <v>15</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>-7</v>
       </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>204141</v>
       </c>
@@ -1207,18 +1280,21 @@
       <c r="F24" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="G24" s="3">
+        <v>15</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>-7</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>301011</v>
       </c>
@@ -1238,17 +1314,20 @@
         <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25">
         <v>5</v>
       </c>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>301021</v>
       </c>
@@ -1268,17 +1347,20 @@
         <v>1</v>
       </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>2</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26">
+      <c r="I26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26">
         <v>-5</v>
       </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>301031</v>
       </c>
@@ -1300,15 +1382,18 @@
       <c r="G27" s="3">
         <v>3</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27">
+      <c r="H27" s="3">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27">
         <v>5</v>
       </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>301041</v>
       </c>
@@ -1327,16 +1412,21 @@
       <c r="F28" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28">
+      <c r="G28" s="3">
+        <v>3</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28">
         <v>5</v>
       </c>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>301051</v>
       </c>
@@ -1356,17 +1446,20 @@
         <v>1</v>
       </c>
       <c r="G29" s="3">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3">
         <v>7</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29">
+      <c r="I29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29">
         <v>5</v>
       </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>301061</v>
       </c>
@@ -1386,15 +1479,18 @@
         <v>1</v>
       </c>
       <c r="G30" s="3">
+        <v>3</v>
+      </c>
+      <c r="H30" s="3">
         <v>8</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30">
+      <c r="I30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30">
         <v>5</v>
       </c>
-      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Design/DataTable/MonsterLaneBuff.xlsx
+++ b/Design/DataTable/MonsterLaneBuff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7FC5C3-C040-4C08-96D4-8ADDB0BC7295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B71D93-D593-4E26-9A8A-EEAB5AF9EF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5400" yWindow="1764" windowWidth="12240" windowHeight="7284" xr2:uid="{02326DCA-5271-488C-921C-02C5416C2128}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{02326DCA-5271-488C-921C-02C5416C2128}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterLaneBuff" sheetId="1" r:id="rId1"/>
@@ -492,7 +492,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1416,7 +1416,7 @@
         <v>3</v>
       </c>
       <c r="H28" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>17</v>

--- a/Design/DataTable/MonsterLaneBuff.xlsx
+++ b/Design/DataTable/MonsterLaneBuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B71D93-D593-4E26-9A8A-EEAB5AF9EF0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C03DF20-CADB-4F04-A185-96EBB303C0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{02326DCA-5271-488C-921C-02C5416C2128}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,242 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaneBuffType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllHealHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllDealHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllHealShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllDealShield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllBuffArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterHealHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroundHealHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireHealHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElectricHealHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterDealHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroundDealHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElectricDealHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterBuffArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroundBuffArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBuffArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElectricBuffArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllNurfArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaterNurfArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroundNurfArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireNurfArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElectricNurfArmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrowBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlowBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PoisonBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlameBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LazerBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MissileBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 체력 힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 체력 딜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 방어구 힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 방어구 딜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 방어력 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 방어력 너프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물 체력 힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅 체력 힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불 체력 힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기 체력 힐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물 체력 딜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅 체력 딜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불 체력 딜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기 체력 딜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물 방어력 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅 방어력 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불 방어력 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기 방어력 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물 방어력 너프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅 방어력 너프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불 방어력 너프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기 방어력 너프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모래시계 타워 슬로우 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독 타워 데미지 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화살 타워 데미지 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화염방사 타워 데미지 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저 타워 데미지 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미사일 타워 데미지 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,64 +725,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B881673F-BBF5-4E06-A02C-DACF7E12984D}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="5" width="8.796875" style="2"/>
-    <col min="6" max="8" width="8.796875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="1"/>
+    <col min="2" max="2" width="16.09765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.296875" style="2" customWidth="1"/>
+    <col min="4" max="7" width="8.796875" style="2"/>
+    <col min="8" max="10" width="8.796875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -556,27 +800,33 @@
         <v>11</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>101110</v>
       </c>
-      <c r="B3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="b">
-        <v>1</v>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="b">
         <v>1</v>
@@ -587,29 +837,35 @@
       <c r="F3" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>10</v>
       </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>102110</v>
       </c>
-      <c r="B4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="b">
-        <v>1</v>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="b">
         <v>1</v>
@@ -620,29 +876,35 @@
       <c r="F4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>-7</v>
       </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>103110</v>
       </c>
-      <c r="B5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="b">
-        <v>1</v>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="b">
         <v>1</v>
@@ -653,29 +915,35 @@
       <c r="F5" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>5</v>
       </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>104110</v>
       </c>
-      <c r="B6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="b">
-        <v>1</v>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D6" s="2" t="b">
         <v>1</v>
@@ -686,29 +954,35 @@
       <c r="F6" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="G6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>-5</v>
       </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>105110</v>
       </c>
-      <c r="B7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="b">
-        <v>1</v>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="D7" s="2" t="b">
         <v>1</v>
@@ -719,29 +993,35 @@
       <c r="F7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
         <v>8</v>
       </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>10</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>106110</v>
       </c>
-      <c r="B8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="b">
-        <v>1</v>
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="b">
         <v>1</v>
@@ -752,128 +1032,152 @@
       <c r="F8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
         <v>8</v>
       </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>-10</v>
       </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>201111</v>
       </c>
-      <c r="B9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="b">
-        <v>1</v>
+      <c r="B9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E9" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="G9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>13</v>
       </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>201121</v>
       </c>
-      <c r="B10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="b">
-        <v>0</v>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D10" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>13</v>
       </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>201131</v>
       </c>
-      <c r="B11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="b">
-        <v>0</v>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E11" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="G11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>13</v>
       </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>201141</v>
       </c>
-      <c r="B12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3" t="b">
-        <v>0</v>
+      <c r="B12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="b">
         <v>0</v>
@@ -882,130 +1186,154 @@
         <v>0</v>
       </c>
       <c r="F12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>13</v>
       </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>202111</v>
       </c>
-      <c r="B13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="b">
-        <v>1</v>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E13" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="G13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>-10</v>
       </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>202121</v>
       </c>
-      <c r="B14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="b">
-        <v>0</v>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="D14" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>-10</v>
       </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>202131</v>
       </c>
-      <c r="B15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3" t="b">
-        <v>0</v>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D15" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E15" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="s">
+      <c r="G15" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>-10</v>
       </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>202141</v>
       </c>
-      <c r="B16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3" t="b">
-        <v>0</v>
+      <c r="B16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="D16" s="3" t="b">
         <v>0</v>
@@ -1014,130 +1342,154 @@
         <v>0</v>
       </c>
       <c r="F16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>-10</v>
       </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>203111</v>
       </c>
-      <c r="B17" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3" t="b">
-        <v>1</v>
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="D17" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E17" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
         <v>15</v>
       </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>7</v>
       </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>203121</v>
       </c>
-      <c r="B18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="b">
-        <v>0</v>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="D18" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F18" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>15</v>
       </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>7</v>
       </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>203131</v>
       </c>
-      <c r="B19" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C19" s="3" t="b">
-        <v>0</v>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="D19" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E19" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3">
         <v>15</v>
       </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>7</v>
       </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>203141</v>
       </c>
-      <c r="B20" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3" t="b">
-        <v>0</v>
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="D20" s="3" t="b">
         <v>0</v>
@@ -1146,130 +1498,154 @@
         <v>0</v>
       </c>
       <c r="F20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
         <v>15</v>
       </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>7</v>
       </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>204111</v>
       </c>
-      <c r="B21" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3" t="b">
-        <v>1</v>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="D21" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E21" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>15</v>
       </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>-7</v>
       </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>204121</v>
       </c>
-      <c r="B22" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3" t="b">
-        <v>0</v>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="D22" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="b">
         <v>0</v>
       </c>
       <c r="F22" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>15</v>
       </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>-7</v>
       </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>204131</v>
       </c>
-      <c r="B23" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3" t="b">
-        <v>0</v>
+      <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D23" s="3" t="b">
         <v>0</v>
       </c>
       <c r="E23" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>15</v>
       </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>-7</v>
       </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>204141</v>
       </c>
-      <c r="B24" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3" t="b">
-        <v>0</v>
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="D24" s="3" t="b">
         <v>0</v>
@@ -1278,31 +1654,37 @@
         <v>0</v>
       </c>
       <c r="F24" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
         <v>15</v>
       </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>-7</v>
       </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>301011</v>
       </c>
-      <c r="B25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3" t="b">
-        <v>1</v>
+      <c r="B25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="D25" s="3" t="b">
         <v>1</v>
@@ -1313,29 +1695,35 @@
       <c r="F25" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
         <v>3</v>
       </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>5</v>
       </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>301021</v>
       </c>
-      <c r="B26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3" t="b">
-        <v>1</v>
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="D26" s="3" t="b">
         <v>1</v>
@@ -1346,29 +1734,35 @@
       <c r="F26" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="G26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>2</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>-5</v>
       </c>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>301031</v>
       </c>
-      <c r="B27" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3" t="b">
-        <v>1</v>
+      <c r="B27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D27" s="3" t="b">
         <v>1</v>
@@ -1379,29 +1773,35 @@
       <c r="F27" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
         <v>3</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>3</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>5</v>
       </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>301041</v>
       </c>
-      <c r="B28" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3" t="b">
-        <v>1</v>
+      <c r="B28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="D28" s="3" t="b">
         <v>1</v>
@@ -1412,29 +1812,35 @@
       <c r="F28" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
         <v>3</v>
       </c>
-      <c r="H28" s="3">
+      <c r="J28" s="3">
         <v>4</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>5</v>
       </c>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>301051</v>
       </c>
-      <c r="B29" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3" t="b">
-        <v>1</v>
+      <c r="B29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="D29" s="3" t="b">
         <v>1</v>
@@ -1445,29 +1851,35 @@
       <c r="F29" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
         <v>3</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>7</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>5</v>
       </c>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>301061</v>
       </c>
-      <c r="B30" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3" t="b">
-        <v>1</v>
+      <c r="B30" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="D30" s="3" t="b">
         <v>1</v>
@@ -1478,19 +1890,25 @@
       <c r="F30" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
         <v>3</v>
       </c>
-      <c r="H30" s="3">
+      <c r="J30" s="3">
         <v>8</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>5</v>
       </c>
-      <c r="K30" s="2"/>
+      <c r="M30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Design/DataTable/MonsterLaneBuff.xlsx
+++ b/Design/DataTable/MonsterLaneBuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C03DF20-CADB-4F04-A185-96EBB303C0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871C8038-D7C2-417B-A962-87F4A9CB2171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{02326DCA-5271-488C-921C-02C5416C2128}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,6 +352,10 @@
   </si>
   <si>
     <t>미사일 타워 데미지 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireDealHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B881673F-BBF5-4E06-A02C-DACF7E12984D}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1291,7 +1295,7 @@
         <v>202131</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>64</v>

--- a/Design/DataTable/MonsterLaneBuff.xlsx
+++ b/Design/DataTable/MonsterLaneBuff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871C8038-D7C2-417B-A962-87F4A9CB2171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C104D1-D6B6-4A4E-A09F-3CFD6E03DDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{02326DCA-5271-488C-921C-02C5416C2128}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,6 +356,14 @@
   </si>
   <si>
     <t>FireDealHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffDebuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B881673F-BBF5-4E06-A02C-DACF7E12984D}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -743,7 +751,8 @@
     <col min="4" max="7" width="8.796875" style="2"/>
     <col min="8" max="10" width="8.796875" style="2" customWidth="1"/>
     <col min="11" max="11" width="12.3984375" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="1"/>
+    <col min="13" max="13" width="10.69921875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
@@ -783,6 +792,9 @@
       <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
@@ -820,6 +832,9 @@
       </c>
       <c r="L2" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -859,7 +874,9 @@
       <c r="L3">
         <v>10</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
@@ -898,7 +915,9 @@
       <c r="L4">
         <v>-7</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
@@ -937,7 +956,9 @@
       <c r="L5">
         <v>5</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
@@ -976,7 +997,9 @@
       <c r="L6">
         <v>-5</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
@@ -1015,7 +1038,9 @@
       <c r="L7">
         <v>10</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
@@ -1054,7 +1079,9 @@
       <c r="L8">
         <v>-10</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
@@ -1093,7 +1120,9 @@
       <c r="L9">
         <v>13</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
@@ -1132,7 +1161,9 @@
       <c r="L10">
         <v>13</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
@@ -1171,7 +1202,9 @@
       <c r="L11">
         <v>13</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
@@ -1210,7 +1243,9 @@
       <c r="L12">
         <v>13</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
@@ -1249,7 +1284,9 @@
       <c r="L13">
         <v>-10</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
@@ -1288,7 +1325,9 @@
       <c r="L14">
         <v>-10</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
@@ -1327,7 +1366,9 @@
       <c r="L15">
         <v>-10</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
@@ -1366,7 +1407,9 @@
       <c r="L16">
         <v>-10</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
@@ -1405,7 +1448,9 @@
       <c r="L17">
         <v>7</v>
       </c>
-      <c r="M17" s="2"/>
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
@@ -1444,7 +1489,9 @@
       <c r="L18">
         <v>7</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
@@ -1483,7 +1530,9 @@
       <c r="L19">
         <v>7</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
@@ -1522,7 +1571,9 @@
       <c r="L20">
         <v>7</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
@@ -1561,7 +1612,9 @@
       <c r="L21">
         <v>-7</v>
       </c>
-      <c r="M21" s="2"/>
+      <c r="M21" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
@@ -1600,7 +1653,9 @@
       <c r="L22">
         <v>-7</v>
       </c>
-      <c r="M22" s="2"/>
+      <c r="M22" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
@@ -1639,7 +1694,9 @@
       <c r="L23">
         <v>-7</v>
       </c>
-      <c r="M23" s="2"/>
+      <c r="M23" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
@@ -1678,7 +1735,9 @@
       <c r="L24">
         <v>-7</v>
       </c>
-      <c r="M24" s="2"/>
+      <c r="M24" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
@@ -1717,7 +1776,9 @@
       <c r="L25">
         <v>5</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
@@ -1756,7 +1817,9 @@
       <c r="L26">
         <v>-5</v>
       </c>
-      <c r="M26" s="2"/>
+      <c r="M26" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
@@ -1795,7 +1858,9 @@
       <c r="L27">
         <v>5</v>
       </c>
-      <c r="M27" s="2"/>
+      <c r="M27" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
@@ -1834,7 +1899,9 @@
       <c r="L28">
         <v>5</v>
       </c>
-      <c r="M28" s="2"/>
+      <c r="M28" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
@@ -1873,7 +1940,9 @@
       <c r="L29">
         <v>5</v>
       </c>
-      <c r="M29" s="2"/>
+      <c r="M29" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
@@ -1912,7 +1981,9 @@
       <c r="L30">
         <v>5</v>
       </c>
-      <c r="M30" s="2"/>
+      <c r="M30" s="3">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Design/DataTable/MonsterLaneBuff.xlsx
+++ b/Design/DataTable/MonsterLaneBuff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C104D1-D6B6-4A4E-A09F-3CFD6E03DDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A1A4FA-EF58-4570-8843-3C8C71E2CD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{02326DCA-5271-488C-921C-02C5416C2128}"/>
   </bookViews>
@@ -359,11 +359,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BuffDebuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
+    <t>IsBuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -740,7 +740,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="M21" sqref="M21:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -874,7 +874,7 @@
       <c r="L3">
         <v>10</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -915,8 +915,8 @@
       <c r="L4">
         <v>-7</v>
       </c>
-      <c r="M4" s="3">
-        <v>2</v>
+      <c r="M4" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -956,7 +956,7 @@
       <c r="L5">
         <v>5</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -997,8 +997,8 @@
       <c r="L6">
         <v>-5</v>
       </c>
-      <c r="M6" s="3">
-        <v>2</v>
+      <c r="M6" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -1038,7 +1038,7 @@
       <c r="L7">
         <v>10</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1079,8 +1079,8 @@
       <c r="L8">
         <v>-10</v>
       </c>
-      <c r="M8" s="3">
-        <v>2</v>
+      <c r="M8" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
@@ -1120,7 +1120,7 @@
       <c r="L9">
         <v>13</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       <c r="L10">
         <v>13</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
       <c r="L11">
         <v>13</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       <c r="L12">
         <v>13</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1284,8 +1284,8 @@
       <c r="L13">
         <v>-10</v>
       </c>
-      <c r="M13" s="3">
-        <v>2</v>
+      <c r="M13" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -1325,8 +1325,8 @@
       <c r="L14">
         <v>-10</v>
       </c>
-      <c r="M14" s="3">
-        <v>2</v>
+      <c r="M14" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -1366,8 +1366,8 @@
       <c r="L15">
         <v>-10</v>
       </c>
-      <c r="M15" s="3">
-        <v>2</v>
+      <c r="M15" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
@@ -1407,8 +1407,8 @@
       <c r="L16">
         <v>-10</v>
       </c>
-      <c r="M16" s="3">
-        <v>2</v>
+      <c r="M16" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -1448,7 +1448,7 @@
       <c r="L17">
         <v>7</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       <c r="L18">
         <v>7</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
       <c r="L19">
         <v>7</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1571,7 +1571,7 @@
       <c r="L20">
         <v>7</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1612,8 +1612,8 @@
       <c r="L21">
         <v>-7</v>
       </c>
-      <c r="M21" s="3">
-        <v>2</v>
+      <c r="M21" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -1653,8 +1653,8 @@
       <c r="L22">
         <v>-7</v>
       </c>
-      <c r="M22" s="3">
-        <v>2</v>
+      <c r="M22" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
@@ -1694,8 +1694,8 @@
       <c r="L23">
         <v>-7</v>
       </c>
-      <c r="M23" s="3">
-        <v>2</v>
+      <c r="M23" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -1735,8 +1735,8 @@
       <c r="L24">
         <v>-7</v>
       </c>
-      <c r="M24" s="3">
-        <v>2</v>
+      <c r="M24" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
@@ -1776,8 +1776,8 @@
       <c r="L25">
         <v>5</v>
       </c>
-      <c r="M25" s="3">
-        <v>2</v>
+      <c r="M25" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
@@ -1817,8 +1817,8 @@
       <c r="L26">
         <v>-5</v>
       </c>
-      <c r="M26" s="3">
-        <v>2</v>
+      <c r="M26" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -1858,8 +1858,8 @@
       <c r="L27">
         <v>5</v>
       </c>
-      <c r="M27" s="3">
-        <v>2</v>
+      <c r="M27" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
@@ -1899,8 +1899,8 @@
       <c r="L28">
         <v>5</v>
       </c>
-      <c r="M28" s="3">
-        <v>2</v>
+      <c r="M28" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -1940,8 +1940,8 @@
       <c r="L29">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>2</v>
+      <c r="M29" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
@@ -1981,8 +1981,8 @@
       <c r="L30">
         <v>5</v>
       </c>
-      <c r="M30" s="3">
-        <v>2</v>
+      <c r="M30" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
